--- a/統合テスト仕様書.xlsx
+++ b/統合テスト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Nobisiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89DBE2E-4DD4-499C-856D-4D92EE7A4BEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFBAA5-7F94-4E56-8FD9-860A07BE87D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>後の〇マーク</t>
   </si>
   <si>
-    <t>マスが空欄</t>
-  </si>
-  <si>
     <t>範囲: 0 &lt;x&lt;4 と 0&lt;y&lt; 4とする</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
 ●checkWinを実行</t>
   </si>
   <si>
+    <t xml:space="preserve">以下の手順で実行する。
+●マス(1,1)=0, (2,2)=0, (1,3)=0を入力
+●checkWinを実行
+</t>
+  </si>
+  <si>
     <t>以下の手順で実行する。
 ●getMark(1,1）に0
 　getMark(1,2）に2
@@ -248,13 +251,6 @@
   </si>
   <si>
     <t>以下の手順で実行する。
-●マスに(1,1)とmark(0)を入力
-   マスに(2,2)とmark(2)入力
-   マスに(3,3)とmark(0)を入力
-●cheｃkLineを実行する。</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する。
 ●getMark(1.1)に0
 　getMark(1.2)に2
 　getMark(1.3)に0
@@ -266,19 +262,6 @@
     <t>以下の手順で実行する。
 ●オブジェクトに引数(1,1)を設定
 ●setMark()に0を設定
-●getMark()で(1,1)のマークを呼び出した値が、setMark()で設定した値と等しければよい</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する。
-●マスに(1.1)とmark(0)を入力
-   マスに（2.2)とmark(0)を入力
-   マスに(3.3)とmark(0)を入力
-●ｃheckLineを実行する。</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する。
-●オブジェクトに引数(1,1)を設定
-●setMark()に2を設定
 ●getMark()で(1,1)のマークを呼び出した値が、setMark()で設定した値と等しければよい</t>
   </si>
   <si>
@@ -335,7 +318,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>マス</t>
+      <t>オブジェクトに引数</t>
     </r>
     <r>
       <rPr>
@@ -343,7 +326,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(1,1)=0, (2,2)=0, (1,3)=0</t>
+      <t>(1,1)</t>
     </r>
     <r>
       <rPr>
@@ -352,7 +335,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を入力
+      <t xml:space="preserve">を設定
 </t>
     </r>
     <r>
@@ -369,7 +352,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>checkWin</t>
+      <t>getMark()</t>
     </r>
     <r>
       <rPr>
@@ -378,8 +361,490 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">を実行
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1,1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のマークを呼び出した値が、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>であればよい</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期設定で空欄のマスに2が入っている</t>
+    <rPh sb="0" eb="4">
+      <t>ショキセッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以下の手順で実行する。
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>setM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ark(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスに（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>setM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ark(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3.3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>setM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ark(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>checkLine()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を実行する。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以下の手順で実行する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1,1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>setM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ark(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2,2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>setM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ark(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>setM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ark(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を入力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>checkLine()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を実行する。</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -388,7 +853,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -472,6 +937,40 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
@@ -683,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,11 +1324,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,11 +1676,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:X9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -1189,8 +1691,8 @@
     <col min="21" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:45" ht="9" customHeight="1"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1740,7 @@
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:45" ht="15" customHeight="1">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1284,7 +1786,7 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1">
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1796,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -1336,7 +1838,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:45" ht="15" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1382,7 +1884,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:45">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1446,16 +1948,16 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="72" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -1496,37 +1998,37 @@
       <c r="AN7" s="24"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ7" s="24"/>
       <c r="AR7" s="24"/>
       <c r="AS7" s="26"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
+        <v>38</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
       <c r="T8" s="30" t="b">
         <v>0</v>
       </c>
@@ -1552,19 +2054,19 @@
       <c r="AN8" s="24"/>
       <c r="AO8" s="24"/>
       <c r="AP8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="26"/>
     </row>
-    <row r="9" spans="2:45" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:45" ht="183.75" customHeight="1">
       <c r="B9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>41</v>
@@ -1612,16 +2114,16 @@
       <c r="AR9" s="24"/>
       <c r="AS9" s="26"/>
     </row>
-    <row r="10" spans="2:45" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:45" ht="126.75" customHeight="1">
       <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -1666,16 +2168,16 @@
       <c r="AR10" s="24"/>
       <c r="AS10" s="26"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:45" ht="72" customHeight="1">
       <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -1716,22 +2218,22 @@
       <c r="AN11" s="24"/>
       <c r="AO11" s="24"/>
       <c r="AP11" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AQ11" s="24"/>
       <c r="AR11" s="24"/>
       <c r="AS11" s="26"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:45" ht="72" customHeight="1">
       <c r="B12" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -1772,13 +2274,13 @@
       <c r="AN12" s="24"/>
       <c r="AO12" s="24"/>
       <c r="AP12" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AQ12" s="24"/>
       <c r="AR12" s="24"/>
       <c r="AS12" s="26"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:45" ht="72" customHeight="1">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="10"/>
@@ -1824,7 +2326,7 @@
       <c r="AR13" s="24"/>
       <c r="AS13" s="26"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:45" ht="72" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="3"/>
@@ -1870,7 +2372,7 @@
       <c r="AR14" s="24"/>
       <c r="AS14" s="26"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:45" ht="72" customHeight="1">
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="3"/>
@@ -1916,7 +2418,7 @@
       <c r="AR15" s="24"/>
       <c r="AS15" s="26"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:45" ht="72" customHeight="1">
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="3"/>
@@ -1962,7 +2464,7 @@
       <c r="AR16" s="24"/>
       <c r="AS16" s="26"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:45" ht="72" customHeight="1">
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="4"/>
@@ -2112,7 +2614,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2124,11 +2626,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:S8"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -2137,8 +2639,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:45" ht="9" customHeight="1"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2688,7 @@
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2232,7 +2734,7 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2282,7 +2784,7 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2328,7 +2830,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:45">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -2392,7 +2894,7 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="72" customHeight="1">
       <c r="B7" s="41" t="s">
         <v>12</v>
       </c>
@@ -2400,8 +2902,8 @@
       <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>45</v>
+      <c r="E7" s="49" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
@@ -2446,7 +2948,7 @@
       <c r="AR7" s="24"/>
       <c r="AS7" s="26"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="41" t="s">
         <v>13</v>
       </c>
@@ -2454,8 +2956,8 @@
       <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>42</v>
+      <c r="E8" s="49" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -2500,7 +3002,7 @@
       <c r="AR8" s="24"/>
       <c r="AS8" s="26"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:45" ht="72" customHeight="1">
       <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
@@ -2548,7 +3050,7 @@
       <c r="AR9" s="24"/>
       <c r="AS9" s="26"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:45" ht="72" customHeight="1">
       <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +3098,7 @@
       <c r="AR10" s="24"/>
       <c r="AS10" s="26"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:45" ht="72" customHeight="1">
       <c r="B11" s="41" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +3146,7 @@
       <c r="AR11" s="24"/>
       <c r="AS11" s="26"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:45" ht="72" customHeight="1">
       <c r="B12" s="31" t="s">
         <v>17</v>
       </c>
@@ -2692,7 +3194,7 @@
       <c r="AR12" s="24"/>
       <c r="AS12" s="26"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:45" ht="72" customHeight="1">
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
       <c r="D13" s="3"/>
@@ -2738,7 +3240,7 @@
       <c r="AR13" s="24"/>
       <c r="AS13" s="26"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:45" ht="72" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="3"/>
@@ -2784,7 +3286,7 @@
       <c r="AR14" s="24"/>
       <c r="AS14" s="26"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:45" ht="72" customHeight="1">
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="3"/>
@@ -2830,7 +3332,7 @@
       <c r="AR15" s="24"/>
       <c r="AS15" s="26"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:45" ht="72" customHeight="1">
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="3"/>
@@ -2876,7 +3378,7 @@
       <c r="AR16" s="24"/>
       <c r="AS16" s="26"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="4"/>
@@ -3037,11 +3539,11 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8:AS8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -3050,8 +3552,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:45" ht="9" customHeight="1"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
@@ -3099,7 +3601,7 @@
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -3145,7 +3647,7 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -3195,7 +3697,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3241,7 +3743,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:45">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -3305,7 +3807,7 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="2:45" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="83.25" customHeight="1">
       <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
@@ -3314,7 +3816,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -3361,7 +3863,7 @@
       <c r="AR7" s="24"/>
       <c r="AS7" s="26"/>
     </row>
-    <row r="8" spans="2:45" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:45" ht="85.5" customHeight="1">
       <c r="B8" s="31" t="s">
         <v>13</v>
       </c>
@@ -3369,8 +3871,8 @@
       <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>46</v>
+      <c r="E8" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -3410,14 +3912,14 @@
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
       <c r="AO8" s="24"/>
-      <c r="AP8" s="24" t="s">
-        <v>35</v>
+      <c r="AP8" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="26"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:45" ht="72" customHeight="1">
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
       <c r="D9" s="9"/>
@@ -3463,7 +3965,7 @@
       <c r="AR9" s="24"/>
       <c r="AS9" s="26"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:45" ht="72" customHeight="1">
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="3"/>
@@ -3509,7 +4011,7 @@
       <c r="AR10" s="24"/>
       <c r="AS10" s="26"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:45" ht="72" customHeight="1">
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
       <c r="D11" s="3"/>
@@ -3555,7 +4057,7 @@
       <c r="AR11" s="24"/>
       <c r="AS11" s="26"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:45" ht="72" customHeight="1">
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="3"/>
@@ -3601,7 +4103,7 @@
       <c r="AR12" s="24"/>
       <c r="AS12" s="26"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:45" ht="72" customHeight="1">
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
       <c r="D13" s="3"/>
@@ -3647,7 +4149,7 @@
       <c r="AR13" s="24"/>
       <c r="AS13" s="26"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:45" ht="72" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="3"/>
@@ -3693,7 +4195,7 @@
       <c r="AR14" s="24"/>
       <c r="AS14" s="26"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:45" ht="72" customHeight="1">
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="3"/>
@@ -3739,7 +4241,7 @@
       <c r="AR15" s="24"/>
       <c r="AS15" s="26"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:45" ht="72" customHeight="1">
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="3"/>
@@ -3785,7 +4287,7 @@
       <c r="AR16" s="24"/>
       <c r="AS16" s="26"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="4"/>
@@ -3950,7 +4452,7 @@
       <selection activeCell="T8" sqref="T8:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -3959,8 +4461,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:45" ht="9" customHeight="1"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
@@ -4008,7 +4510,7 @@
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -4054,7 +4556,7 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -4104,7 +4606,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4150,7 +4652,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:45">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4716,7 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="72" customHeight="1">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
@@ -4268,7 +4770,7 @@
       <c r="AR7" s="24"/>
       <c r="AS7" s="26"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="3"/>
@@ -4314,7 +4816,7 @@
       <c r="AR8" s="24"/>
       <c r="AS8" s="26"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:45" ht="72" customHeight="1">
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
       <c r="D9" s="3"/>
@@ -4360,7 +4862,7 @@
       <c r="AR9" s="24"/>
       <c r="AS9" s="26"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:45" ht="72" customHeight="1">
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="3"/>
@@ -4406,7 +4908,7 @@
       <c r="AR10" s="24"/>
       <c r="AS10" s="26"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:45" ht="72" customHeight="1">
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
       <c r="D11" s="3"/>
@@ -4452,7 +4954,7 @@
       <c r="AR11" s="24"/>
       <c r="AS11" s="26"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:45" ht="72" customHeight="1">
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="3"/>
@@ -4498,7 +5000,7 @@
       <c r="AR12" s="24"/>
       <c r="AS12" s="26"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:45" ht="72" customHeight="1">
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
       <c r="D13" s="3"/>
@@ -4544,7 +5046,7 @@
       <c r="AR13" s="24"/>
       <c r="AS13" s="26"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:45" ht="72" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="3"/>
@@ -4590,7 +5092,7 @@
       <c r="AR14" s="24"/>
       <c r="AS14" s="26"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:45" ht="72" customHeight="1">
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="3"/>
@@ -4636,7 +5138,7 @@
       <c r="AR15" s="24"/>
       <c r="AS15" s="26"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:45" ht="72" customHeight="1">
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="3"/>
@@ -4682,7 +5184,7 @@
       <c r="AR16" s="24"/>
       <c r="AS16" s="26"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="4"/>
@@ -4847,7 +5349,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
@@ -4856,8 +5358,8 @@
     <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:45" ht="9" customHeight="1"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
@@ -4905,7 +5407,7 @@
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -4951,7 +5453,7 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
     </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +5503,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5047,7 +5549,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:45">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5613,7 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="72" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="3"/>
@@ -5157,7 +5659,7 @@
       <c r="AR7" s="24"/>
       <c r="AS7" s="26"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="3"/>
@@ -5203,7 +5705,7 @@
       <c r="AR8" s="24"/>
       <c r="AS8" s="26"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:45" ht="72" customHeight="1">
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
       <c r="D9" s="3"/>
@@ -5249,7 +5751,7 @@
       <c r="AR9" s="24"/>
       <c r="AS9" s="26"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:45" ht="72" customHeight="1">
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="3"/>
@@ -5295,7 +5797,7 @@
       <c r="AR10" s="24"/>
       <c r="AS10" s="26"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:45" ht="72" customHeight="1">
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
       <c r="D11" s="3"/>
@@ -5341,7 +5843,7 @@
       <c r="AR11" s="24"/>
       <c r="AS11" s="26"/>
     </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:45" ht="72" customHeight="1">
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="3"/>
@@ -5387,7 +5889,7 @@
       <c r="AR12" s="24"/>
       <c r="AS12" s="26"/>
     </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:45" ht="72" customHeight="1">
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
       <c r="D13" s="3"/>
@@ -5433,7 +5935,7 @@
       <c r="AR13" s="24"/>
       <c r="AS13" s="26"/>
     </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:45" ht="72" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="3"/>
@@ -5479,7 +5981,7 @@
       <c r="AR14" s="24"/>
       <c r="AS14" s="26"/>
     </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:45" ht="72" customHeight="1">
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="3"/>
@@ -5525,7 +6027,7 @@
       <c r="AR15" s="24"/>
       <c r="AS15" s="26"/>
     </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:45" ht="72" customHeight="1">
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="3"/>
@@ -5571,7 +6073,7 @@
       <c r="AR16" s="24"/>
       <c r="AS16" s="26"/>
     </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="4"/>
@@ -5726,12 +6228,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -5915,7 +6411,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5924,16 +6420,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65644406-FD84-49E0-BE93-B63E674A3156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5951,10 +6444,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>